--- a/epigraphhub/data/brasil/sinan/metadata/CHAG.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/CHAG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="392">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -99,8 +99,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Deslocamento
-UF 1</t>
+    <t xml:space="preserve">33. Deslocamento UF 1</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_desloca_1</t>
@@ -115,8 +114,7 @@
     <t xml:space="preserve">ANT_UF_1</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Deslocamento
-Município 1</t>
+    <t xml:space="preserve">33. Deslocamento Município 1</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_desloca_1</t>
@@ -129,8 +127,7 @@
     <t xml:space="preserve">MUN_1</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Deslocamento
-UF 2</t>
+    <t xml:space="preserve">33. Deslocamento UF 2</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_desloca_2</t>
@@ -143,8 +140,7 @@
     <t xml:space="preserve">ANT_UF_2</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Deslocamento
-Município 2</t>
+    <t xml:space="preserve">33. Deslocamento Município 2</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_desloca_2</t>
@@ -153,8 +149,7 @@
     <t xml:space="preserve">MUN_2</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Deslocamento
-UF 3</t>
+    <t xml:space="preserve">33. Deslocamento UF 3</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_desloca_3</t>
@@ -163,8 +158,7 @@
     <t xml:space="preserve">ANT_UF_3</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Deslocamento
-Município 3</t>
+    <t xml:space="preserve">34. Deslocamento Município 3</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_desloca_3</t>
@@ -173,8 +167,7 @@
     <t xml:space="preserve">MUN_3</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Presença de vestígios de triatomídeos Intra-
-Domicílio</t>
+    <t xml:space="preserve">34. Presença de vestígios de triatomídeos Intra- Domicílio</t>
   </si>
   <si>
     <t xml:space="preserve">st_presenca_triatomideos</t>
@@ -401,8 +394,7 @@
     <t xml:space="preserve">EDEMA</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Sinais e sintomas SINAIS DE
-MENINGOENCEFALITE</t>
+    <t xml:space="preserve">41. Sinais e sintomas SINAIS DE MENINGOENCEFALITE</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_meningoencefalite</t>
@@ -477,8 +469,7 @@
     <t xml:space="preserve">ARRITMIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Sinais e sintomas
-ASTENIA</t>
+    <t xml:space="preserve">41. Sinais e sintomas ASTENIA</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_astenia</t>
@@ -495,8 +486,7 @@
     <t xml:space="preserve">ASTENIA</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Sinais e sintomas
-ESPLENOMEGALIA</t>
+    <t xml:space="preserve">41. Sinais e sintomas ESPLENOMEGALIA</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_esplenomegalia</t>
@@ -509,8 +499,7 @@
     <t xml:space="preserve">ESPLENOM</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Sinais e sintomas CHAGOMA DE
-INOCULAÇÂO (sinal de Romana ou outro)</t>
+    <t xml:space="preserve">41. Sinais e sintomas CHAGOMA DE INOCULAÇÂO (sinal de Romana ou outro)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_chagoma</t>
@@ -572,8 +561,7 @@
     <t xml:space="preserve">OUTRO_ESP</t>
   </si>
   <si>
-    <t xml:space="preserve">42. EXAMES REALIZADOS
-Parasitológico Direto Data da Coleta</t>
+    <t xml:space="preserve">42. EXAMES REALIZADOS Parasitológico Direto Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_parasita_direto</t>
@@ -590,9 +578,7 @@
     <t xml:space="preserve">DT_COL_DIR</t>
   </si>
   <si>
-    <t xml:space="preserve">43. EXAMES REALIZADOS
-Parasitológico Direto
-Exame a Fresco</t>
+    <t xml:space="preserve">43. EXAMES REALIZADOS Parasitológico Direto Exame a Fresco</t>
   </si>
   <si>
     <t xml:space="preserve">tp_parasotologico_fresco</t>
@@ -608,8 +594,7 @@
     <t xml:space="preserve">EXAME</t>
   </si>
   <si>
-    <t xml:space="preserve">43. EXAMES REALIZADOS
-Parasitológico Direto Strout/Microhematócrito/ QBC</t>
+    <t xml:space="preserve">43. EXAMES REALIZADOS Parasitológico Direto Strout/Microhematócrito/ QBC</t>
   </si>
   <si>
     <t xml:space="preserve">tp_parasotologico_hematocrito</t>
@@ -624,8 +609,7 @@
     <t xml:space="preserve">MICRO_HEMA</t>
   </si>
   <si>
-    <t xml:space="preserve">43. EXAMES REALIZADOS
-Outro</t>
+    <t xml:space="preserve">43. EXAMES REALIZADOS Outro</t>
   </si>
   <si>
     <t xml:space="preserve">ttp_parasotologico_outro</t>
@@ -641,8 +625,7 @@
     <t xml:space="preserve">OUTRO</t>
   </si>
   <si>
-    <t xml:space="preserve">44. EXAMES REALIZADOS
-Parasitológico Indireto Data da Coleta</t>
+    <t xml:space="preserve">44. EXAMES REALIZADOS Parasitológico Indireto Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_parasita_indireto</t>
@@ -657,8 +640,7 @@
     <t xml:space="preserve">DT_COL_IND</t>
   </si>
   <si>
-    <t xml:space="preserve">44. EXAMES REALIZADOS
-Parasitológico Indireto Xenodiagnóstico</t>
+    <t xml:space="preserve">44. EXAMES REALIZADOS Parasitológico Indireto Xenodiagnóstico</t>
   </si>
   <si>
     <t xml:space="preserve">tp_xenodiagnostico</t>
@@ -667,9 +649,7 @@
     <t xml:space="preserve">XENODIAG</t>
   </si>
   <si>
-    <t xml:space="preserve">45. EXAMES REALIZADOS
-Parasitológico Indireto
-Hemocultivo</t>
+    <t xml:space="preserve">45. EXAMES REALIZADOS Parasitológico Indireto Hemocultivo</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemocultivo</t>
@@ -678,9 +658,7 @@
     <t xml:space="preserve">HEMOCULT</t>
   </si>
   <si>
-    <t xml:space="preserve">46. EXAMES
-REALIZADOS
-Data da Coleta S1</t>
+    <t xml:space="preserve">46. EXAMES REALIZADOS Data da Coleta S1</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_s1</t>
@@ -693,8 +671,7 @@
     <t xml:space="preserve">DT_COL_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">47. EXAMES REALIZADOS
-Data da Coleta S2</t>
+    <t xml:space="preserve">47. EXAMES REALIZADOS Data da Coleta S2</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_s2</t>
@@ -703,10 +680,7 @@
     <t xml:space="preserve">DT_COL_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">48. EXAMES
-REALIZADOS
-Resultado da Sorologia para ELISA
-IgM S1</t>
+    <t xml:space="preserve">48. EXAMES REALIZADOS Resultado da Sorologia para ELISA IgM S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_elisa_igm_s1</t>
@@ -724,9 +698,7 @@
     <t xml:space="preserve">ELI_IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">48. EXAMES REALIZADOS
-Resultado da Sorologia para ELISA
-IgG S1</t>
+    <t xml:space="preserve">48. EXAMES REALIZADOS Resultado da Sorologia para ELISA IgG S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_elisa_igg_s1</t>
@@ -738,9 +710,7 @@
     <t xml:space="preserve">ELI_IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">48. EXAMES REALIZADOS
-Resultado da Sorologia para ELISA
-IgM S2</t>
+    <t xml:space="preserve">48. EXAMES REALIZADOS Resultado da Sorologia para ELISA IgM S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_elisa_igm_s2</t>
@@ -752,9 +722,7 @@
     <t xml:space="preserve">ELI_IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">48. EXAMES REALIZADOS
-Resultado da Sorologia para ELISA
-IgG S2</t>
+    <t xml:space="preserve">48. EXAMES REALIZADOS Resultado da Sorologia para ELISA IgG S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_elisa_igg_s2</t>
@@ -766,8 +734,7 @@
     <t xml:space="preserve">ELI_IGG_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">49. EXAMES REALIZADOS
-Resultado da Sorologia para Hemoaglutinação IgM S1</t>
+    <t xml:space="preserve">49. EXAMES REALIZADOS Resultado da Sorologia para Hemoaglutinação IgM S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemoaglutinacao_igm_s1</t>
@@ -779,8 +746,7 @@
     <t xml:space="preserve">HEM_IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">49. EXAMES REALIZADOS
-Resultado da Sorologia para Hemoaglutinação IgG S1</t>
+    <t xml:space="preserve">49. EXAMES REALIZADOS Resultado da Sorologia para Hemoaglutinação IgG S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemoaglutinacao_igg_s1</t>
@@ -792,8 +758,7 @@
     <t xml:space="preserve">HEM_IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">49. EXAMES REALIZADOS
-Resultado da Sorologia para Hemoaglutinação IgM S2</t>
+    <t xml:space="preserve">49. EXAMES REALIZADOS Resultado da Sorologia para Hemoaglutinação IgM S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemoaglutinacao_igm_s2</t>
@@ -805,8 +770,7 @@
     <t xml:space="preserve">HEM_IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">49. EXAMES REALIZADOS
-Resultado da Sorologia para Hemoaglutinação IgG S2</t>
+    <t xml:space="preserve">49. EXAMES REALIZADOS Resultado da Sorologia para Hemoaglutinação IgG S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_hemoaglutinacao_igg_s2</t>
@@ -818,9 +782,7 @@
     <t xml:space="preserve">HEM_IGG_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-IgM S1</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI IgM S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_igm_s1</t>
@@ -833,9 +795,7 @@
     <t xml:space="preserve">IMU_IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-Título IgM S1</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI Título IgM S1</t>
   </si>
   <si>
     <t xml:space="preserve">ds_resultado_titulo_igm_s1</t>
@@ -873,9 +833,7 @@
     <t xml:space="preserve">TIT_IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-IgM S2</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI IgM S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_igm_s2</t>
@@ -888,10 +846,7 @@
     <t xml:space="preserve">IMU_IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-Título IgM Laboratório produtor do soro anti- rábico
-S2</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI Título IgM Laboratório produtor do soro anti- rábico S2</t>
   </si>
   <si>
     <t xml:space="preserve">ds_resultado_titulo_igm_s2</t>
@@ -926,9 +881,7 @@
     <t xml:space="preserve">TIT_IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-IgG S1</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI IgG S1</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_igg_s1</t>
@@ -941,12 +894,7 @@
     <t xml:space="preserve">IMU_IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-Título IgG S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar (5)</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI Título IgG S1</t>
   </si>
   <si>
     <t xml:space="preserve">Título Resultado imunofluorescencia indireta
@@ -978,9 +926,7 @@
     <t xml:space="preserve">TIT_IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-IgG S2</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI IgG S2</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_igg_s2</t>
@@ -993,9 +939,7 @@
     <t xml:space="preserve">IMU_IGG_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">50. EXAMES REALIZADOS
-Resultado da Imunofluorescência Indireta - IFI
-Título IgG S2</t>
+    <t xml:space="preserve">50. EXAMES REALIZADOS Resultado da Imunofluorescência Indireta - IFI Título IgG S2</t>
   </si>
   <si>
     <t xml:space="preserve">ds_resultado_titulo_igg_s2</t>
@@ -1030,8 +974,7 @@
     <t xml:space="preserve">TIT_IGG_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">51. EXAMES REALIZADOS
-Data da Coleta do Histopatológico</t>
+    <t xml:space="preserve">51. EXAMES REALIZADOS Data da Coleta do Histopatológico</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_histopatologico</t>
@@ -1046,9 +989,7 @@
     <t xml:space="preserve">RESUL_HIS</t>
   </si>
   <si>
-    <t xml:space="preserve">52. EXAMES
-REALIZADOS
-Resultado do Histopatológico</t>
+    <t xml:space="preserve">52. EXAMES REALIZADOS Resultado do Histopatológico</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_necropsia</t>
@@ -1144,8 +1085,7 @@
     <t xml:space="preserve">TEMPO</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas
-Controle de Triatomídeos</t>
+    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Controle de Triatomídeos</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ocorre_triatomideos</t>
@@ -1161,8 +1101,7 @@
     <t xml:space="preserve">CON_TRIAT</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Implantação de Normas de biosegurança em
-Laboratório</t>
+    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Implantação de Normas de biosegurança em Laboratório</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ocorre_bioseguranca</t>
@@ -1177,8 +1116,7 @@
     <t xml:space="preserve">BIOSSEG</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas
-Fiscalização Sanitária em Unidade de Hemoterapia</t>
+    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Fiscalização Sanitária em Unidade de Hemoterapia</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ocorre_fiscalizacao</t>
@@ -1190,8 +1128,7 @@
     <t xml:space="preserve">FISCALIZA</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas
-Outros</t>
+    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Outros</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ocorre_outro</t>
@@ -1203,8 +1140,7 @@
     <t xml:space="preserve">MED_OUTRO</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas
-Outros, especifique</t>
+    <t xml:space="preserve">56. Ocorreu ou Medidas Tomadas Outros, especifique</t>
   </si>
   <si>
     <t xml:space="preserve">ds_ocorre_outro</t>
@@ -1459,8 +1395,7 @@
     <t xml:space="preserve">CON_PROVAV</t>
   </si>
   <si>
-    <t xml:space="preserve">61. Modo Provável da
-Infecção Outra especificar</t>
+    <t xml:space="preserve">61. Modo Provável da Infecção Outra especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_modo_infeccao_outro</t>
@@ -2013,8 +1948,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">67. Distrito
-(provável de infecção)</t>
+    <t xml:space="preserve">67. Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -2200,8 +2134,7 @@
     <t xml:space="preserve">DOENCA_TRA</t>
   </si>
   <si>
-    <t xml:space="preserve">70. Data do
-Encerramento</t>
+    <t xml:space="preserve">70. Data do Encerramento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_encerramento</t>
@@ -2485,8 +2418,8 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="1" sqref="C52 C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.8125" defaultRowHeight="49.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3745,29 +3678,29 @@
         <v>226</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>43</v>
@@ -3776,23 +3709,23 @@
         <v>175</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>212</v>
@@ -3801,69 +3734,69 @@
         <v>175</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>43</v>
@@ -3872,23 +3805,23 @@
         <v>55</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>43</v>
@@ -3897,597 +3830,597 @@
         <v>55</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
